--- a/InputData/indst/MHV/Methane Heating Value.xlsx
+++ b/InputData/indst/MHV/Methane Heating Value.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1FF73440BC45AB2BCAAB5C3B13CC55449C275622" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="25875" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="25875" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MHV" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -36,12 +27,12 @@
     <t>Engineering Toolbox</t>
   </si>
   <si>
+    <t>http://www.engineeringtoolbox.com/heating-values-fuel-gases-d_823.html</t>
+  </si>
+  <si>
     <t>Fuel Gases Heating Values</t>
   </si>
   <si>
-    <t>http://www.engineeringtoolbox.com/heating-values-fuel-gases-d_823.html</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -66,6 +57,12 @@
     <t>the lower heating value.</t>
   </si>
   <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Heating Value (BTU/g)</t>
+  </si>
+  <si>
     <t>Higher (gross) heating value</t>
   </si>
   <si>
@@ -80,21 +77,15 @@
   <si>
     <t>BTU/g</t>
   </si>
-  <si>
-    <t>Methane</t>
-  </si>
-  <si>
-    <t>Heating Value (BTU/g)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,9 +140,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -199,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,26 +220,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,23 +255,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,19 +430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,57 +450,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -558,29 +512,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>23811</v>
@@ -589,9 +543,9 @@
         <v>21433</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
         <v>453.59199999999998</v>
@@ -600,9 +554,9 @@
         <v>453.59199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <f>B2/B3</f>
@@ -619,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -627,20 +581,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <f>Data!B4</f>
@@ -653,24 +607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -904,14 +840,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852B77A2-DF8D-46DE-9398-1AEE0D8E1EC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB5663C-FE6D-4719-A07C-09C2C0F395A3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B81D26B-F0F9-4902-A9CC-A1FFE593D45B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5CBB89-87FD-4406-97C9-DF13F4EB936F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A251EE14-0EE2-45FA-B3E9-75CA4A106AEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5A6566-E6DE-4069-934D-C3BA62BE81C2}"/>
 </file>